--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I523"/>
+  <dimension ref="A1:I524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15624,6 +15624,35 @@
         <v>14.842</v>
       </c>
     </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>44616</v>
+      </c>
+      <c r="B524" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="C524" t="n">
+        <v>8.584</v>
+      </c>
+      <c r="D524" t="n">
+        <v>9.811</v>
+      </c>
+      <c r="E524" t="n">
+        <v>10.535</v>
+      </c>
+      <c r="F524" t="n">
+        <v>12.396</v>
+      </c>
+      <c r="G524" t="n">
+        <v>13.841</v>
+      </c>
+      <c r="H524" t="n">
+        <v>14.488</v>
+      </c>
+      <c r="I524" t="n">
+        <v>14.842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I524"/>
+  <dimension ref="A1:I525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15653,6 +15653,35 @@
         <v>14.842</v>
       </c>
     </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>44617</v>
+      </c>
+      <c r="B525" t="n">
+        <v>7.563</v>
+      </c>
+      <c r="C525" t="n">
+        <v>10.634</v>
+      </c>
+      <c r="D525" t="n">
+        <v>9.413</v>
+      </c>
+      <c r="E525" t="n">
+        <v>10.788</v>
+      </c>
+      <c r="F525" t="n">
+        <v>12.448</v>
+      </c>
+      <c r="G525" t="n">
+        <v>13.841</v>
+      </c>
+      <c r="H525" t="n">
+        <v>14.488</v>
+      </c>
+      <c r="I525" t="n">
+        <v>14.842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I525"/>
+  <dimension ref="A1:I526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15682,6 +15682,35 @@
         <v>14.842</v>
       </c>
     </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B526" t="n">
+        <v>8.095000000000001</v>
+      </c>
+      <c r="C526" t="n">
+        <v>10.637</v>
+      </c>
+      <c r="D526" t="n">
+        <v>12.575</v>
+      </c>
+      <c r="E526" t="n">
+        <v>10.535</v>
+      </c>
+      <c r="F526" t="n">
+        <v>12.396</v>
+      </c>
+      <c r="G526" t="n">
+        <v>13.841</v>
+      </c>
+      <c r="H526" t="n">
+        <v>14.488</v>
+      </c>
+      <c r="I526" t="n">
+        <v>14.842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I526"/>
+  <dimension ref="A1:I527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15711,6 +15711,35 @@
         <v>14.842</v>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B527" t="n">
+        <v>7.563</v>
+      </c>
+      <c r="C527" t="n">
+        <v>10.639</v>
+      </c>
+      <c r="D527" t="n">
+        <v>9.414999999999999</v>
+      </c>
+      <c r="E527" t="n">
+        <v>10.786</v>
+      </c>
+      <c r="F527" t="n">
+        <v>12.448</v>
+      </c>
+      <c r="G527" t="n">
+        <v>13.841</v>
+      </c>
+      <c r="H527" t="n">
+        <v>14.488</v>
+      </c>
+      <c r="I527" t="n">
+        <v>14.842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I527"/>
+  <dimension ref="A1:I528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15740,6 +15740,35 @@
         <v>14.842</v>
       </c>
     </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="B528" t="n">
+        <v>7.566</v>
+      </c>
+      <c r="C528" t="n">
+        <v>10.639</v>
+      </c>
+      <c r="D528" t="n">
+        <v>9.994999999999999</v>
+      </c>
+      <c r="E528" t="n">
+        <v>10.574</v>
+      </c>
+      <c r="F528" t="n">
+        <v>12.396</v>
+      </c>
+      <c r="G528" t="n">
+        <v>13.841</v>
+      </c>
+      <c r="H528" t="n">
+        <v>14.165</v>
+      </c>
+      <c r="I528" t="n">
+        <v>14.842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I528"/>
+  <dimension ref="A1:I529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15769,6 +15769,35 @@
         <v>14.842</v>
       </c>
     </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>44623</v>
+      </c>
+      <c r="B529" t="n">
+        <v>6.563</v>
+      </c>
+      <c r="C529" t="n">
+        <v>10.644</v>
+      </c>
+      <c r="D529" t="n">
+        <v>9.819000000000001</v>
+      </c>
+      <c r="E529" t="n">
+        <v>10.577</v>
+      </c>
+      <c r="F529" t="n">
+        <v>12.448</v>
+      </c>
+      <c r="G529" t="n">
+        <v>13.841</v>
+      </c>
+      <c r="H529" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I529" t="n">
+        <v>14.842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I529"/>
+  <dimension ref="A1:I530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15798,6 +15798,35 @@
         <v>14.842</v>
       </c>
     </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>44624</v>
+      </c>
+      <c r="B530" t="n">
+        <v>7.567</v>
+      </c>
+      <c r="C530" t="n">
+        <v>9.013</v>
+      </c>
+      <c r="D530" t="n">
+        <v>9.823</v>
+      </c>
+      <c r="E530" t="n">
+        <v>10.577</v>
+      </c>
+      <c r="F530" t="n">
+        <v>12.449</v>
+      </c>
+      <c r="G530" t="n">
+        <v>13.841</v>
+      </c>
+      <c r="H530" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I530" t="n">
+        <v>14.842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -15809,7 +15809,7 @@
         <v>9.013</v>
       </c>
       <c r="D530" t="n">
-        <v>9.823</v>
+        <v>9.420999999999999</v>
       </c>
       <c r="E530" t="n">
         <v>10.577</v>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I530"/>
+  <dimension ref="A1:I531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15827,6 +15827,35 @@
         <v>14.842</v>
       </c>
     </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B531" t="n">
+        <v>7.572</v>
+      </c>
+      <c r="C531" t="n">
+        <v>9.016</v>
+      </c>
+      <c r="D531" t="n">
+        <v>9.423999999999999</v>
+      </c>
+      <c r="E531" t="n">
+        <v>10.577</v>
+      </c>
+      <c r="F531" t="n">
+        <v>12.396</v>
+      </c>
+      <c r="G531" t="n">
+        <v>13.841</v>
+      </c>
+      <c r="H531" t="n">
+        <v>14.486</v>
+      </c>
+      <c r="I531" t="n">
+        <v>14.842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I531"/>
+  <dimension ref="A1:I532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15856,6 +15856,35 @@
         <v>14.842</v>
       </c>
     </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="B532" t="n">
+        <v>9.531000000000001</v>
+      </c>
+      <c r="C532" t="n">
+        <v>8.584</v>
+      </c>
+      <c r="D532" t="n">
+        <v>9.811</v>
+      </c>
+      <c r="E532" t="n">
+        <v>10.556</v>
+      </c>
+      <c r="F532" t="n">
+        <v>12.396</v>
+      </c>
+      <c r="G532" t="n">
+        <v>13.841</v>
+      </c>
+      <c r="H532" t="n">
+        <v>14.486</v>
+      </c>
+      <c r="I532" t="n">
+        <v>14.788</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I532"/>
+  <dimension ref="A1:I533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15885,6 +15885,35 @@
         <v>14.788</v>
       </c>
     </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="B533" t="n">
+        <v>9.535</v>
+      </c>
+      <c r="C533" t="n">
+        <v>10.635</v>
+      </c>
+      <c r="D533" t="n">
+        <v>9.661</v>
+      </c>
+      <c r="E533" t="n">
+        <v>10.486</v>
+      </c>
+      <c r="F533" t="n">
+        <v>12.556</v>
+      </c>
+      <c r="G533" t="n">
+        <v>13.948</v>
+      </c>
+      <c r="H533" t="n">
+        <v>14.485</v>
+      </c>
+      <c r="I533" t="n">
+        <v>14.788</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I533"/>
+  <dimension ref="A1:I534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15914,6 +15914,35 @@
         <v>14.788</v>
       </c>
     </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="B534" t="n">
+        <v>9.535</v>
+      </c>
+      <c r="C534" t="n">
+        <v>8.955</v>
+      </c>
+      <c r="D534" t="n">
+        <v>9.816000000000001</v>
+      </c>
+      <c r="E534" t="n">
+        <v>10.486</v>
+      </c>
+      <c r="F534" t="n">
+        <v>12.608</v>
+      </c>
+      <c r="G534" t="n">
+        <v>13.948</v>
+      </c>
+      <c r="H534" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I534" t="n">
+        <v>14.788</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -15931,7 +15931,7 @@
         <v>10.486</v>
       </c>
       <c r="F534" t="n">
-        <v>12.608</v>
+        <v>12.556</v>
       </c>
       <c r="G534" t="n">
         <v>13.948</v>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I534"/>
+  <dimension ref="A1:I536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15943,6 +15943,64 @@
         <v>14.788</v>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>44632</v>
+      </c>
+      <c r="B535" t="n">
+        <v>9.535</v>
+      </c>
+      <c r="C535" t="n">
+        <v>8.955</v>
+      </c>
+      <c r="D535" t="n">
+        <v>9.816000000000001</v>
+      </c>
+      <c r="E535" t="n">
+        <v>10.486</v>
+      </c>
+      <c r="F535" t="n">
+        <v>12.556</v>
+      </c>
+      <c r="G535" t="n">
+        <v>13.948</v>
+      </c>
+      <c r="H535" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I535" t="n">
+        <v>14.788</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B536" t="n">
+        <v>6.614</v>
+      </c>
+      <c r="C536" t="n">
+        <v>10.639</v>
+      </c>
+      <c r="D536" t="n">
+        <v>9.666</v>
+      </c>
+      <c r="E536" t="n">
+        <v>10.486</v>
+      </c>
+      <c r="F536" t="n">
+        <v>12.608</v>
+      </c>
+      <c r="G536" t="n">
+        <v>13.949</v>
+      </c>
+      <c r="H536" t="n">
+        <v>14.484</v>
+      </c>
+      <c r="I536" t="n">
+        <v>14.788</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I536"/>
+  <dimension ref="A1:I537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16001,6 +16001,35 @@
         <v>14.788</v>
       </c>
     </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="B537" t="n">
+        <v>6.615</v>
+      </c>
+      <c r="C537" t="n">
+        <v>10.639</v>
+      </c>
+      <c r="D537" t="n">
+        <v>9.667</v>
+      </c>
+      <c r="E537" t="n">
+        <v>10.486</v>
+      </c>
+      <c r="F537" t="n">
+        <v>12.556</v>
+      </c>
+      <c r="G537" t="n">
+        <v>13.949</v>
+      </c>
+      <c r="H537" t="n">
+        <v>14.431</v>
+      </c>
+      <c r="I537" t="n">
+        <v>14.788</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I537"/>
+  <dimension ref="A1:I538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16030,6 +16030,35 @@
         <v>14.788</v>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="B538" t="n">
+        <v>6.563</v>
+      </c>
+      <c r="C538" t="n">
+        <v>8.590999999999999</v>
+      </c>
+      <c r="D538" t="n">
+        <v>9.819000000000001</v>
+      </c>
+      <c r="E538" t="n">
+        <v>10.556</v>
+      </c>
+      <c r="F538" t="n">
+        <v>12.396</v>
+      </c>
+      <c r="G538" t="n">
+        <v>13.842</v>
+      </c>
+      <c r="H538" t="n">
+        <v>14.484</v>
+      </c>
+      <c r="I538" t="n">
+        <v>14.788</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I538"/>
+  <dimension ref="A1:I539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16059,6 +16059,35 @@
         <v>14.788</v>
       </c>
     </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="B539" t="n">
+        <v>6.616</v>
+      </c>
+      <c r="C539" t="n">
+        <v>10.645</v>
+      </c>
+      <c r="D539" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="E539" t="n">
+        <v>10.486</v>
+      </c>
+      <c r="F539" t="n">
+        <v>12.556</v>
+      </c>
+      <c r="G539" t="n">
+        <v>13.949</v>
+      </c>
+      <c r="H539" t="n">
+        <v>14.431</v>
+      </c>
+      <c r="I539" t="n">
+        <v>14.788</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I539"/>
+  <dimension ref="A1:I540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16088,6 +16088,35 @@
         <v>14.788</v>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="B540" t="n">
+        <v>6.618</v>
+      </c>
+      <c r="C540" t="n">
+        <v>10.645</v>
+      </c>
+      <c r="D540" t="n">
+        <v>9.673999999999999</v>
+      </c>
+      <c r="E540" t="n">
+        <v>10.486</v>
+      </c>
+      <c r="F540" t="n">
+        <v>12.556</v>
+      </c>
+      <c r="G540" t="n">
+        <v>13.949</v>
+      </c>
+      <c r="H540" t="n">
+        <v>14.431</v>
+      </c>
+      <c r="I540" t="n">
+        <v>14.788</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I540"/>
+  <dimension ref="A1:I541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16117,6 +16117,35 @@
         <v>14.788</v>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="B541" t="n">
+        <v>6.622</v>
+      </c>
+      <c r="C541" t="n">
+        <v>10.629</v>
+      </c>
+      <c r="D541" t="n">
+        <v>9.827</v>
+      </c>
+      <c r="E541" t="n">
+        <v>10.486</v>
+      </c>
+      <c r="F541" t="n">
+        <v>12.556</v>
+      </c>
+      <c r="G541" t="n">
+        <v>13.949</v>
+      </c>
+      <c r="H541" t="n">
+        <v>14.431</v>
+      </c>
+      <c r="I541" t="n">
+        <v>14.788</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I541"/>
+  <dimension ref="A1:I542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16146,6 +16146,35 @@
         <v>14.788</v>
       </c>
     </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="B542" t="n">
+        <v>9.535</v>
+      </c>
+      <c r="C542" t="n">
+        <v>10.635</v>
+      </c>
+      <c r="D542" t="n">
+        <v>9.661</v>
+      </c>
+      <c r="E542" t="n">
+        <v>10.458</v>
+      </c>
+      <c r="F542" t="n">
+        <v>12.556</v>
+      </c>
+      <c r="G542" t="n">
+        <v>13.949</v>
+      </c>
+      <c r="H542" t="n">
+        <v>14.484</v>
+      </c>
+      <c r="I542" t="n">
+        <v>15.003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I542"/>
+  <dimension ref="A1:I543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16175,6 +16175,35 @@
         <v>15.003</v>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="B543" t="n">
+        <v>6.563</v>
+      </c>
+      <c r="C543" t="n">
+        <v>10.635</v>
+      </c>
+      <c r="D543" t="n">
+        <v>9.866</v>
+      </c>
+      <c r="E543" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="F543" t="n">
+        <v>12.396</v>
+      </c>
+      <c r="G543" t="n">
+        <v>13.842</v>
+      </c>
+      <c r="H543" t="n">
+        <v>14.484</v>
+      </c>
+      <c r="I543" t="n">
+        <v>15.003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I543"/>
+  <dimension ref="A1:I544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16204,6 +16204,35 @@
         <v>15.003</v>
       </c>
     </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="B544" t="n">
+        <v>6.614</v>
+      </c>
+      <c r="C544" t="n">
+        <v>8.641</v>
+      </c>
+      <c r="D544" t="n">
+        <v>9.666</v>
+      </c>
+      <c r="E544" t="n">
+        <v>10.458</v>
+      </c>
+      <c r="F544" t="n">
+        <v>12.556</v>
+      </c>
+      <c r="G544" t="n">
+        <v>13.949</v>
+      </c>
+      <c r="H544" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I544" t="n">
+        <v>15.003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I544"/>
+  <dimension ref="A1:I545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16233,6 +16233,35 @@
         <v>15.003</v>
       </c>
     </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B545" t="n">
+        <v>6.615</v>
+      </c>
+      <c r="C545" t="n">
+        <v>8.641999999999999</v>
+      </c>
+      <c r="D545" t="n">
+        <v>9.667</v>
+      </c>
+      <c r="E545" t="n">
+        <v>10.458</v>
+      </c>
+      <c r="F545" t="n">
+        <v>12.556</v>
+      </c>
+      <c r="G545" t="n">
+        <v>13.949</v>
+      </c>
+      <c r="H545" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I545" t="n">
+        <v>15.003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I545"/>
+  <dimension ref="A1:I546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16262,6 +16262,35 @@
         <v>15.003</v>
       </c>
     </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="B546" t="n">
+        <v>6.616</v>
+      </c>
+      <c r="C546" t="n">
+        <v>8.641999999999999</v>
+      </c>
+      <c r="D546" t="n">
+        <v>9.669</v>
+      </c>
+      <c r="E546" t="n">
+        <v>10.458</v>
+      </c>
+      <c r="F546" t="n">
+        <v>12.557</v>
+      </c>
+      <c r="G546" t="n">
+        <v>13.949</v>
+      </c>
+      <c r="H546" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I546" t="n">
+        <v>15.003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I546"/>
+  <dimension ref="A1:I547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16291,6 +16291,35 @@
         <v>15.003</v>
       </c>
     </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B547" t="n">
+        <v>6.616</v>
+      </c>
+      <c r="C547" t="n">
+        <v>8.644</v>
+      </c>
+      <c r="D547" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="E547" t="n">
+        <v>10.458</v>
+      </c>
+      <c r="F547" t="n">
+        <v>12.609</v>
+      </c>
+      <c r="G547" t="n">
+        <v>13.949</v>
+      </c>
+      <c r="H547" t="n">
+        <v>14.485</v>
+      </c>
+      <c r="I547" t="n">
+        <v>15.003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I547"/>
+  <dimension ref="A1:I548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16320,6 +16320,35 @@
         <v>15.003</v>
       </c>
     </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B548" t="n">
+        <v>6.618</v>
+      </c>
+      <c r="C548" t="n">
+        <v>8.648</v>
+      </c>
+      <c r="D548" t="n">
+        <v>9.673999999999999</v>
+      </c>
+      <c r="E548" t="n">
+        <v>10.458</v>
+      </c>
+      <c r="F548" t="n">
+        <v>12.557</v>
+      </c>
+      <c r="G548" t="n">
+        <v>13.949</v>
+      </c>
+      <c r="H548" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I548" t="n">
+        <v>15.003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I548"/>
+  <dimension ref="A1:I549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16349,6 +16349,35 @@
         <v>15.003</v>
       </c>
     </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="B549" t="n">
+        <v>9.538</v>
+      </c>
+      <c r="C549" t="n">
+        <v>10.639</v>
+      </c>
+      <c r="D549" t="n">
+        <v>9.867000000000001</v>
+      </c>
+      <c r="E549" t="n">
+        <v>10.425</v>
+      </c>
+      <c r="F549" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="G549" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="H549" t="n">
+        <v>14.486</v>
+      </c>
+      <c r="I549" t="n">
+        <v>15.273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I549"/>
+  <dimension ref="A1:I550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16378,6 +16378,35 @@
         <v>15.273</v>
       </c>
     </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B550" t="n">
+        <v>9.541</v>
+      </c>
+      <c r="C550" t="n">
+        <v>10.639</v>
+      </c>
+      <c r="D550" t="n">
+        <v>9.868</v>
+      </c>
+      <c r="E550" t="n">
+        <v>10.425</v>
+      </c>
+      <c r="F550" t="n">
+        <v>12.557</v>
+      </c>
+      <c r="G550" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="H550" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I550" t="n">
+        <v>15.273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I550"/>
+  <dimension ref="A1:I551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16407,6 +16407,35 @@
         <v>15.273</v>
       </c>
     </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="B551" t="n">
+        <v>9.541</v>
+      </c>
+      <c r="C551" t="n">
+        <v>10.639</v>
+      </c>
+      <c r="D551" t="n">
+        <v>9.868</v>
+      </c>
+      <c r="E551" t="n">
+        <v>10.425</v>
+      </c>
+      <c r="F551" t="n">
+        <v>12.557</v>
+      </c>
+      <c r="G551" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="H551" t="n">
+        <v>14.486</v>
+      </c>
+      <c r="I551" t="n">
+        <v>15.273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I551"/>
+  <dimension ref="A1:I552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16436,6 +16436,35 @@
         <v>15.273</v>
       </c>
     </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="B552" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="C552" t="n">
+        <v>10.647</v>
+      </c>
+      <c r="D552" t="n">
+        <v>9.868</v>
+      </c>
+      <c r="E552" t="n">
+        <v>10.425</v>
+      </c>
+      <c r="F552" t="n">
+        <v>12.557</v>
+      </c>
+      <c r="G552" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="H552" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I552" t="n">
+        <v>15.273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I552"/>
+  <dimension ref="A1:I553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16465,6 +16465,35 @@
         <v>15.273</v>
       </c>
     </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>44666</v>
+      </c>
+      <c r="B553" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="C553" t="n">
+        <v>10.647</v>
+      </c>
+      <c r="D553" t="n">
+        <v>9.868</v>
+      </c>
+      <c r="E553" t="n">
+        <v>10.425</v>
+      </c>
+      <c r="F553" t="n">
+        <v>12.557</v>
+      </c>
+      <c r="G553" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="H553" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I553" t="n">
+        <v>15.273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I553"/>
+  <dimension ref="A1:I554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16494,6 +16494,35 @@
         <v>15.273</v>
       </c>
     </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>44667</v>
+      </c>
+      <c r="B554" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="C554" t="n">
+        <v>8.752000000000001</v>
+      </c>
+      <c r="D554" t="n">
+        <v>9.875</v>
+      </c>
+      <c r="E554" t="n">
+        <v>10.425</v>
+      </c>
+      <c r="F554" t="n">
+        <v>12.557</v>
+      </c>
+      <c r="G554" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="H554" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I554" t="n">
+        <v>15.273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I554"/>
+  <dimension ref="A1:I555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16523,6 +16523,35 @@
         <v>15.273</v>
       </c>
     </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B555" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="C555" t="n">
+        <v>10.629</v>
+      </c>
+      <c r="D555" t="n">
+        <v>9.875</v>
+      </c>
+      <c r="E555" t="n">
+        <v>10.425</v>
+      </c>
+      <c r="F555" t="n">
+        <v>12.557</v>
+      </c>
+      <c r="G555" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="H555" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I555" t="n">
+        <v>15.111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I555"/>
+  <dimension ref="A1:I556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16552,6 +16552,35 @@
         <v>15.111</v>
       </c>
     </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="B556" t="n">
+        <v>9.535</v>
+      </c>
+      <c r="C556" t="n">
+        <v>10.635</v>
+      </c>
+      <c r="D556" t="n">
+        <v>9.875</v>
+      </c>
+      <c r="E556" t="n">
+        <v>10.425</v>
+      </c>
+      <c r="F556" t="n">
+        <v>12.557</v>
+      </c>
+      <c r="G556" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="H556" t="n">
+        <v>14.486</v>
+      </c>
+      <c r="I556" t="n">
+        <v>15.111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I556"/>
+  <dimension ref="A1:I557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16581,6 +16581,35 @@
         <v>15.111</v>
       </c>
     </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="B557" t="n">
+        <v>9.535</v>
+      </c>
+      <c r="C557" t="n">
+        <v>10.635</v>
+      </c>
+      <c r="D557" t="n">
+        <v>9.866</v>
+      </c>
+      <c r="E557" t="n">
+        <v>10.387</v>
+      </c>
+      <c r="F557" t="n">
+        <v>12.557</v>
+      </c>
+      <c r="G557" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="H557" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I557" t="n">
+        <v>15.111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I557"/>
+  <dimension ref="A1:I559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16610,6 +16610,64 @@
         <v>15.111</v>
       </c>
     </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>44674</v>
+      </c>
+      <c r="B558" t="n">
+        <v>9.535</v>
+      </c>
+      <c r="C558" t="n">
+        <v>10.635</v>
+      </c>
+      <c r="D558" t="n">
+        <v>9.866</v>
+      </c>
+      <c r="E558" t="n">
+        <v>10.387</v>
+      </c>
+      <c r="F558" t="n">
+        <v>12.557</v>
+      </c>
+      <c r="G558" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="H558" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I558" t="n">
+        <v>15.111</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B559" t="n">
+        <v>9.538</v>
+      </c>
+      <c r="C559" t="n">
+        <v>10.639</v>
+      </c>
+      <c r="D559" t="n">
+        <v>9.867000000000001</v>
+      </c>
+      <c r="E559" t="n">
+        <v>10.387</v>
+      </c>
+      <c r="F559" t="n">
+        <v>12.557</v>
+      </c>
+      <c r="G559" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="H559" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I559" t="n">
+        <v>15.111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I559"/>
+  <dimension ref="A1:I560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16668,6 +16668,35 @@
         <v>15.111</v>
       </c>
     </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="B560" t="n">
+        <v>9.541</v>
+      </c>
+      <c r="C560" t="n">
+        <v>10.639</v>
+      </c>
+      <c r="D560" t="n">
+        <v>9.867000000000001</v>
+      </c>
+      <c r="E560" t="n">
+        <v>10.387</v>
+      </c>
+      <c r="F560" t="n">
+        <v>12.557</v>
+      </c>
+      <c r="G560" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="H560" t="n">
+        <v>14.057</v>
+      </c>
+      <c r="I560" t="n">
+        <v>15.057</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I560"/>
+  <dimension ref="A1:I561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16697,6 +16697,35 @@
         <v>15.057</v>
       </c>
     </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="B561" t="n">
+        <v>9.541</v>
+      </c>
+      <c r="C561" t="n">
+        <v>10.639</v>
+      </c>
+      <c r="D561" t="n">
+        <v>9.867000000000001</v>
+      </c>
+      <c r="E561" t="n">
+        <v>10.387</v>
+      </c>
+      <c r="F561" t="n">
+        <v>12.611</v>
+      </c>
+      <c r="G561" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="H561" t="n">
+        <v>14.486</v>
+      </c>
+      <c r="I561" t="n">
+        <v>15.057</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I561"/>
+  <dimension ref="A1:I562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16726,6 +16726,35 @@
         <v>15.057</v>
       </c>
     </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B562" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="C562" t="n">
+        <v>10.647</v>
+      </c>
+      <c r="D562" t="n">
+        <v>9.867000000000001</v>
+      </c>
+      <c r="E562" t="n">
+        <v>10.387</v>
+      </c>
+      <c r="F562" t="n">
+        <v>12.557</v>
+      </c>
+      <c r="G562" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="H562" t="n">
+        <v>14.057</v>
+      </c>
+      <c r="I562" t="n">
+        <v>15.057</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I562"/>
+  <dimension ref="A1:I563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16755,6 +16755,35 @@
         <v>15.057</v>
       </c>
     </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B563" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="C563" t="n">
+        <v>10.647</v>
+      </c>
+      <c r="D563" t="n">
+        <v>9.875</v>
+      </c>
+      <c r="E563" t="n">
+        <v>10.387</v>
+      </c>
+      <c r="F563" t="n">
+        <v>12.611</v>
+      </c>
+      <c r="G563" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="H563" t="n">
+        <v>14.486</v>
+      </c>
+      <c r="I563" t="n">
+        <v>15.057</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -16772,13 +16772,13 @@
         <v>10.387</v>
       </c>
       <c r="F563" t="n">
-        <v>12.611</v>
+        <v>12.557</v>
       </c>
       <c r="G563" t="n">
         <v>13.95</v>
       </c>
       <c r="H563" t="n">
-        <v>14.486</v>
+        <v>14.057</v>
       </c>
       <c r="I563" t="n">
         <v>15.057</v>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I563"/>
+  <dimension ref="A1:I564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16784,6 +16784,35 @@
         <v>15.057</v>
       </c>
     </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>44681</v>
+      </c>
+      <c r="B564" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="C564" t="n">
+        <v>8.752000000000001</v>
+      </c>
+      <c r="D564" t="n">
+        <v>9.875</v>
+      </c>
+      <c r="E564" t="n">
+        <v>10.387</v>
+      </c>
+      <c r="F564" t="n">
+        <v>12.557</v>
+      </c>
+      <c r="G564" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="H564" t="n">
+        <v>14.057</v>
+      </c>
+      <c r="I564" t="n">
+        <v>15.057</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I564"/>
+  <dimension ref="A1:I565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16813,6 +16813,35 @@
         <v>15.057</v>
       </c>
     </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B565" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="C565" t="n">
+        <v>10.629</v>
+      </c>
+      <c r="D565" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="E565" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="F565" t="n">
+        <v>12.557</v>
+      </c>
+      <c r="G565" t="n">
+        <v>13.944</v>
+      </c>
+      <c r="H565" t="n">
+        <v>14.057</v>
+      </c>
+      <c r="I565" t="n">
+        <v>15.058</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I565"/>
+  <dimension ref="A1:I566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16842,6 +16842,35 @@
         <v>15.058</v>
       </c>
     </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="B566" t="n">
+        <v>9.531000000000001</v>
+      </c>
+      <c r="C566" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="D566" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="E566" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="F566" t="n">
+        <v>12.557</v>
+      </c>
+      <c r="G566" t="n">
+        <v>13.943</v>
+      </c>
+      <c r="H566" t="n">
+        <v>14.057</v>
+      </c>
+      <c r="I566" t="n">
+        <v>15.058</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I566"/>
+  <dimension ref="A1:I567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16871,6 +16871,35 @@
         <v>15.058</v>
       </c>
     </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>44686</v>
+      </c>
+      <c r="B567" t="n">
+        <v>9.535</v>
+      </c>
+      <c r="C567" t="n">
+        <v>10.635</v>
+      </c>
+      <c r="D567" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="E567" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="F567" t="n">
+        <v>12.557</v>
+      </c>
+      <c r="G567" t="n">
+        <v>13.943</v>
+      </c>
+      <c r="H567" t="n">
+        <v>14.057</v>
+      </c>
+      <c r="I567" t="n">
+        <v>15.111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I567"/>
+  <dimension ref="A1:I568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16900,6 +16900,35 @@
         <v>15.111</v>
       </c>
     </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B568" t="n">
+        <v>9.535</v>
+      </c>
+      <c r="C568" t="n">
+        <v>10.635</v>
+      </c>
+      <c r="D568" t="n">
+        <v>9.858000000000001</v>
+      </c>
+      <c r="E568" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="F568" t="n">
+        <v>12.611</v>
+      </c>
+      <c r="G568" t="n">
+        <v>13.943</v>
+      </c>
+      <c r="H568" t="n">
+        <v>14.486</v>
+      </c>
+      <c r="I568" t="n">
+        <v>15.111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -16917,13 +16917,13 @@
         <v>10.34</v>
       </c>
       <c r="F568" t="n">
-        <v>12.611</v>
+        <v>12.557</v>
       </c>
       <c r="G568" t="n">
         <v>13.943</v>
       </c>
       <c r="H568" t="n">
-        <v>14.486</v>
+        <v>14.057</v>
       </c>
       <c r="I568" t="n">
         <v>15.111</v>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I568"/>
+  <dimension ref="A1:I569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16929,6 +16929,35 @@
         <v>15.111</v>
       </c>
     </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B569" t="n">
+        <v>9.538</v>
+      </c>
+      <c r="C569" t="n">
+        <v>10.639</v>
+      </c>
+      <c r="D569" t="n">
+        <v>9.867000000000001</v>
+      </c>
+      <c r="E569" t="n">
+        <v>10.524</v>
+      </c>
+      <c r="F569" t="n">
+        <v>12.717</v>
+      </c>
+      <c r="G569" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="H569" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I569" t="n">
+        <v>15.111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I569"/>
+  <dimension ref="A1:I570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16958,6 +16958,35 @@
         <v>15.111</v>
       </c>
     </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B570" t="n">
+        <v>9.541</v>
+      </c>
+      <c r="C570" t="n">
+        <v>10.639</v>
+      </c>
+      <c r="D570" t="n">
+        <v>9.867000000000001</v>
+      </c>
+      <c r="E570" t="n">
+        <v>10.524</v>
+      </c>
+      <c r="F570" t="n">
+        <v>12.611</v>
+      </c>
+      <c r="G570" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="H570" t="n">
+        <v>14.486</v>
+      </c>
+      <c r="I570" t="n">
+        <v>15.111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I570"/>
+  <dimension ref="A1:I571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16987,6 +16987,35 @@
         <v>15.111</v>
       </c>
     </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B571" t="n">
+        <v>9.542999999999999</v>
+      </c>
+      <c r="C571" t="n">
+        <v>10.642</v>
+      </c>
+      <c r="D571" t="n">
+        <v>9.867000000000001</v>
+      </c>
+      <c r="E571" t="n">
+        <v>10.524</v>
+      </c>
+      <c r="F571" t="n">
+        <v>12.611</v>
+      </c>
+      <c r="G571" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="H571" t="n">
+        <v>14.486</v>
+      </c>
+      <c r="I571" t="n">
+        <v>15.111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I571"/>
+  <dimension ref="A1:I572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17016,6 +17016,35 @@
         <v>15.111</v>
       </c>
     </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B572" t="n">
+        <v>9.542999999999999</v>
+      </c>
+      <c r="C572" t="n">
+        <v>10.645</v>
+      </c>
+      <c r="D572" t="n">
+        <v>9.867000000000001</v>
+      </c>
+      <c r="E572" t="n">
+        <v>10.524</v>
+      </c>
+      <c r="F572" t="n">
+        <v>12.718</v>
+      </c>
+      <c r="G572" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="H572" t="n">
+        <v>14.486</v>
+      </c>
+      <c r="I572" t="n">
+        <v>15.111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I572"/>
+  <dimension ref="A1:I573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17045,6 +17045,35 @@
         <v>15.111</v>
       </c>
     </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="B573" t="n">
+        <v>9.542999999999999</v>
+      </c>
+      <c r="C573" t="n">
+        <v>10.645</v>
+      </c>
+      <c r="D573" t="n">
+        <v>9.867000000000001</v>
+      </c>
+      <c r="E573" t="n">
+        <v>10.524</v>
+      </c>
+      <c r="F573" t="n">
+        <v>12.611</v>
+      </c>
+      <c r="G573" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="H573" t="n">
+        <v>14.486</v>
+      </c>
+      <c r="I573" t="n">
+        <v>15.111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -17062,13 +17062,13 @@
         <v>10.524</v>
       </c>
       <c r="F573" t="n">
-        <v>12.611</v>
+        <v>12.718</v>
       </c>
       <c r="G573" t="n">
         <v>14.05</v>
       </c>
       <c r="H573" t="n">
-        <v>14.486</v>
+        <v>14.432</v>
       </c>
       <c r="I573" t="n">
         <v>15.111</v>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I573"/>
+  <dimension ref="A1:I575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17074,6 +17074,64 @@
         <v>15.111</v>
       </c>
     </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>44695</v>
+      </c>
+      <c r="B574" t="n">
+        <v>9.542999999999999</v>
+      </c>
+      <c r="C574" t="n">
+        <v>10.645</v>
+      </c>
+      <c r="D574" t="n">
+        <v>9.875</v>
+      </c>
+      <c r="E574" t="n">
+        <v>10.524</v>
+      </c>
+      <c r="F574" t="n">
+        <v>12.718</v>
+      </c>
+      <c r="G574" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="H574" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I574" t="n">
+        <v>15.111</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="B575" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="C575" t="n">
+        <v>10.649</v>
+      </c>
+      <c r="D575" t="n">
+        <v>9.875</v>
+      </c>
+      <c r="E575" t="n">
+        <v>10.524</v>
+      </c>
+      <c r="F575" t="n">
+        <v>12.718</v>
+      </c>
+      <c r="G575" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="H575" t="n">
+        <v>14.486</v>
+      </c>
+      <c r="I575" t="n">
+        <v>15.273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I575"/>
+  <dimension ref="A1:I576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17132,6 +17132,35 @@
         <v>15.273</v>
       </c>
     </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>44698</v>
+      </c>
+      <c r="B576" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="C576" t="n">
+        <v>10.629</v>
+      </c>
+      <c r="D576" t="n">
+        <v>9.875</v>
+      </c>
+      <c r="E576" t="n">
+        <v>10.524</v>
+      </c>
+      <c r="F576" t="n">
+        <v>12.718</v>
+      </c>
+      <c r="G576" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="H576" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I576" t="n">
+        <v>15.271</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I576"/>
+  <dimension ref="A1:I577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17161,6 +17161,35 @@
         <v>15.271</v>
       </c>
     </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="B577" t="n">
+        <v>9.531000000000001</v>
+      </c>
+      <c r="C577" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="D577" t="n">
+        <v>9.875</v>
+      </c>
+      <c r="E577" t="n">
+        <v>10.521</v>
+      </c>
+      <c r="F577" t="n">
+        <v>12.611</v>
+      </c>
+      <c r="G577" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="H577" t="n">
+        <v>14.486</v>
+      </c>
+      <c r="I577" t="n">
+        <v>15.271</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I577"/>
+  <dimension ref="A1:I578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17190,6 +17190,35 @@
         <v>15.271</v>
       </c>
     </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="B578" t="n">
+        <v>9.535</v>
+      </c>
+      <c r="C578" t="n">
+        <v>10.635</v>
+      </c>
+      <c r="D578" t="n">
+        <v>9.875</v>
+      </c>
+      <c r="E578" t="n">
+        <v>10.521</v>
+      </c>
+      <c r="F578" t="n">
+        <v>12.719</v>
+      </c>
+      <c r="G578" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="H578" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I578" t="n">
+        <v>15.292</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I578"/>
+  <dimension ref="A1:I579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17219,6 +17219,35 @@
         <v>15.292</v>
       </c>
     </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="B579" t="n">
+        <v>8.095000000000001</v>
+      </c>
+      <c r="C579" t="n">
+        <v>10.899</v>
+      </c>
+      <c r="D579" t="n">
+        <v>9.875</v>
+      </c>
+      <c r="E579" t="n">
+        <v>10.521</v>
+      </c>
+      <c r="F579" t="n">
+        <v>12.719</v>
+      </c>
+      <c r="G579" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="H579" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I579" t="n">
+        <v>15.292</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I579"/>
+  <dimension ref="A1:I581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17248,6 +17248,64 @@
         <v>15.292</v>
       </c>
     </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>44702</v>
+      </c>
+      <c r="B580" t="n">
+        <v>9.535</v>
+      </c>
+      <c r="C580" t="n">
+        <v>10.635</v>
+      </c>
+      <c r="D580" t="n">
+        <v>9.866</v>
+      </c>
+      <c r="E580" t="n">
+        <v>10.521</v>
+      </c>
+      <c r="F580" t="n">
+        <v>12.719</v>
+      </c>
+      <c r="G580" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="H580" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I580" t="n">
+        <v>15.292</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B581" t="n">
+        <v>9.538</v>
+      </c>
+      <c r="C581" t="n">
+        <v>10.639</v>
+      </c>
+      <c r="D581" t="n">
+        <v>9.866</v>
+      </c>
+      <c r="E581" t="n">
+        <v>10.479</v>
+      </c>
+      <c r="F581" t="n">
+        <v>12.612</v>
+      </c>
+      <c r="G581" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="H581" t="n">
+        <v>14.486</v>
+      </c>
+      <c r="I581" t="n">
+        <v>15.292</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I581"/>
+  <dimension ref="A1:I582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17306,6 +17306,35 @@
         <v>15.292</v>
       </c>
     </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B582" t="n">
+        <v>9.541</v>
+      </c>
+      <c r="C582" t="n">
+        <v>10.639</v>
+      </c>
+      <c r="D582" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="E582" t="n">
+        <v>10.479</v>
+      </c>
+      <c r="F582" t="n">
+        <v>12.719</v>
+      </c>
+      <c r="G582" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="H582" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I582" t="n">
+        <v>15.292</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I582"/>
+  <dimension ref="A1:I583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17335,6 +17335,35 @@
         <v>15.292</v>
       </c>
     </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B583" t="n">
+        <v>9.542999999999999</v>
+      </c>
+      <c r="C583" t="n">
+        <v>10.642</v>
+      </c>
+      <c r="D583" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="E583" t="n">
+        <v>10.479</v>
+      </c>
+      <c r="F583" t="n">
+        <v>12.985</v>
+      </c>
+      <c r="G583" t="n">
+        <v>14.157</v>
+      </c>
+      <c r="H583" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I583" t="n">
+        <v>15.486</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I583"/>
+  <dimension ref="A1:I584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17364,6 +17364,35 @@
         <v>15.486</v>
       </c>
     </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>44707</v>
+      </c>
+      <c r="B584" t="n">
+        <v>9.542999999999999</v>
+      </c>
+      <c r="C584" t="n">
+        <v>10.645</v>
+      </c>
+      <c r="D584" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="E584" t="n">
+        <v>10.479</v>
+      </c>
+      <c r="F584" t="n">
+        <v>12.986</v>
+      </c>
+      <c r="G584" t="n">
+        <v>14.157</v>
+      </c>
+      <c r="H584" t="n">
+        <v>14.486</v>
+      </c>
+      <c r="I584" t="n">
+        <v>15.486</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I584"/>
+  <dimension ref="A1:I585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17393,6 +17393,35 @@
         <v>15.486</v>
       </c>
     </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="B585" t="n">
+        <v>9.542999999999999</v>
+      </c>
+      <c r="C585" t="n">
+        <v>10.645</v>
+      </c>
+      <c r="D585" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="E585" t="n">
+        <v>10.479</v>
+      </c>
+      <c r="F585" t="n">
+        <v>12.986</v>
+      </c>
+      <c r="G585" t="n">
+        <v>14.157</v>
+      </c>
+      <c r="H585" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I585" t="n">
+        <v>15.486</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I585"/>
+  <dimension ref="A1:I587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17422,6 +17422,64 @@
         <v>15.486</v>
       </c>
     </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>44709</v>
+      </c>
+      <c r="B586" t="n">
+        <v>9.542999999999999</v>
+      </c>
+      <c r="C586" t="n">
+        <v>8.752000000000001</v>
+      </c>
+      <c r="D586" t="n">
+        <v>9.875</v>
+      </c>
+      <c r="E586" t="n">
+        <v>10.479</v>
+      </c>
+      <c r="F586" t="n">
+        <v>12.986</v>
+      </c>
+      <c r="G586" t="n">
+        <v>14.157</v>
+      </c>
+      <c r="H586" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="I586" t="n">
+        <v>15.486</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B587" t="n">
+        <v>9.547000000000001</v>
+      </c>
+      <c r="C587" t="n">
+        <v>10.647</v>
+      </c>
+      <c r="D587" t="n">
+        <v>9.875</v>
+      </c>
+      <c r="E587" t="n">
+        <v>10.479</v>
+      </c>
+      <c r="F587" t="n">
+        <v>12.985</v>
+      </c>
+      <c r="G587" t="n">
+        <v>14.158</v>
+      </c>
+      <c r="H587" t="n">
+        <v>14.433</v>
+      </c>
+      <c r="I587" t="n">
+        <v>15.486</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I587"/>
+  <dimension ref="A1:I588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17480,6 +17480,35 @@
         <v>15.486</v>
       </c>
     </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B588" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="C588" t="n">
+        <v>9.164</v>
+      </c>
+      <c r="D588" t="n">
+        <v>9.875</v>
+      </c>
+      <c r="E588" t="n">
+        <v>10.479</v>
+      </c>
+      <c r="F588" t="n">
+        <v>12.613</v>
+      </c>
+      <c r="G588" t="n">
+        <v>14.158</v>
+      </c>
+      <c r="H588" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="I588" t="n">
+        <v>15.594</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I588"/>
+  <dimension ref="A1:I589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17509,6 +17509,35 @@
         <v>15.594</v>
       </c>
     </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B589" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C589" t="n">
+        <v>9.164</v>
+      </c>
+      <c r="D589" t="n">
+        <v>10.017</v>
+      </c>
+      <c r="E589" t="n">
+        <v>14.131</v>
+      </c>
+      <c r="F589" t="n">
+        <v>14.431</v>
+      </c>
+      <c r="G589" t="n">
+        <v>15.233</v>
+      </c>
+      <c r="H589" t="n">
+        <v>15.725</v>
+      </c>
+      <c r="I589" t="n">
+        <v>16.697</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I589"/>
+  <dimension ref="A1:I590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17538,6 +17538,35 @@
         <v>16.697</v>
       </c>
     </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>44733</v>
+      </c>
+      <c r="B590" t="n">
+        <v>8.201000000000001</v>
+      </c>
+      <c r="C590" t="n">
+        <v>9.164</v>
+      </c>
+      <c r="D590" t="n">
+        <v>10.017</v>
+      </c>
+      <c r="E590" t="n">
+        <v>14.131</v>
+      </c>
+      <c r="F590" t="n">
+        <v>14.431</v>
+      </c>
+      <c r="G590" t="n">
+        <v>15.233</v>
+      </c>
+      <c r="H590" t="n">
+        <v>15.294</v>
+      </c>
+      <c r="I590" t="n">
+        <v>16.697</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I590"/>
+  <dimension ref="A1:I591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17567,6 +17567,35 @@
         <v>16.697</v>
       </c>
     </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B591" t="n">
+        <v>8.202</v>
+      </c>
+      <c r="C591" t="n">
+        <v>9.164999999999999</v>
+      </c>
+      <c r="D591" t="n">
+        <v>10.019</v>
+      </c>
+      <c r="E591" t="n">
+        <v>13.864</v>
+      </c>
+      <c r="F591" t="n">
+        <v>14.431</v>
+      </c>
+      <c r="G591" t="n">
+        <v>15.179</v>
+      </c>
+      <c r="H591" t="n">
+        <v>15.617</v>
+      </c>
+      <c r="I591" t="n">
+        <v>16.588</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I591"/>
+  <dimension ref="A1:I592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17596,6 +17596,35 @@
         <v>16.588</v>
       </c>
     </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B592" t="n">
+        <v>8.202999999999999</v>
+      </c>
+      <c r="C592" t="n">
+        <v>8.747999999999999</v>
+      </c>
+      <c r="D592" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="E592" t="n">
+        <v>13.864</v>
+      </c>
+      <c r="F592" t="n">
+        <v>14.431</v>
+      </c>
+      <c r="G592" t="n">
+        <v>15.179</v>
+      </c>
+      <c r="H592" t="n">
+        <v>15.294</v>
+      </c>
+      <c r="I592" t="n">
+        <v>16.588</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I592"/>
+  <dimension ref="A1:I593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17625,6 +17625,35 @@
         <v>16.588</v>
       </c>
     </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B593" t="n">
+        <v>8.205</v>
+      </c>
+      <c r="C593" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="D593" t="n">
+        <v>10.024</v>
+      </c>
+      <c r="E593" t="n">
+        <v>13.864</v>
+      </c>
+      <c r="F593" t="n">
+        <v>14.431</v>
+      </c>
+      <c r="G593" t="n">
+        <v>15.179</v>
+      </c>
+      <c r="H593" t="n">
+        <v>15.617</v>
+      </c>
+      <c r="I593" t="n">
+        <v>16.588</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I593"/>
+  <dimension ref="A1:I594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17654,6 +17654,35 @@
         <v>16.588</v>
       </c>
     </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B594" t="n">
+        <v>8.206</v>
+      </c>
+      <c r="C594" t="n">
+        <v>9.170999999999999</v>
+      </c>
+      <c r="D594" t="n">
+        <v>10.025</v>
+      </c>
+      <c r="E594" t="n">
+        <v>13.864</v>
+      </c>
+      <c r="F594" t="n">
+        <v>14.431</v>
+      </c>
+      <c r="G594" t="n">
+        <v>15.179</v>
+      </c>
+      <c r="H594" t="n">
+        <v>15.294</v>
+      </c>
+      <c r="I594" t="n">
+        <v>16.588</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I594"/>
+  <dimension ref="A1:I595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17683,6 +17683,35 @@
         <v>16.588</v>
       </c>
     </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B595" t="n">
+        <v>8.208</v>
+      </c>
+      <c r="C595" t="n">
+        <v>9.173</v>
+      </c>
+      <c r="D595" t="n">
+        <v>10.026</v>
+      </c>
+      <c r="E595" t="n">
+        <v>13.864</v>
+      </c>
+      <c r="F595" t="n">
+        <v>14.431</v>
+      </c>
+      <c r="G595" t="n">
+        <v>15.179</v>
+      </c>
+      <c r="H595" t="n">
+        <v>15.618</v>
+      </c>
+      <c r="I595" t="n">
+        <v>16.588</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I595"/>
+  <dimension ref="A1:I596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17712,6 +17712,35 @@
         <v>16.588</v>
       </c>
     </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B596" t="n">
+        <v>8.198</v>
+      </c>
+      <c r="C596" t="n">
+        <v>9.157999999999999</v>
+      </c>
+      <c r="D596" t="n">
+        <v>10.011</v>
+      </c>
+      <c r="E596" t="n">
+        <v>13.864</v>
+      </c>
+      <c r="F596" t="n">
+        <v>14.431</v>
+      </c>
+      <c r="G596" t="n">
+        <v>15.179</v>
+      </c>
+      <c r="H596" t="n">
+        <v>15.294</v>
+      </c>
+      <c r="I596" t="n">
+        <v>16.588</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I596"/>
+  <dimension ref="A1:I597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17741,6 +17741,35 @@
         <v>16.588</v>
       </c>
     </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B597" t="n">
+        <v>8.199</v>
+      </c>
+      <c r="C597" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="D597" t="n">
+        <v>10.012</v>
+      </c>
+      <c r="E597" t="n">
+        <v>13.864</v>
+      </c>
+      <c r="F597" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="G597" t="n">
+        <v>15.179</v>
+      </c>
+      <c r="H597" t="n">
+        <v>15.294</v>
+      </c>
+      <c r="I597" t="n">
+        <v>16.588</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I597"/>
+  <dimension ref="A1:I598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17770,6 +17770,35 @@
         <v>16.588</v>
       </c>
     </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B598" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C598" t="n">
+        <v>8.744</v>
+      </c>
+      <c r="D598" t="n">
+        <v>10.017</v>
+      </c>
+      <c r="E598" t="n">
+        <v>13.864</v>
+      </c>
+      <c r="F598" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="G598" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="H598" t="n">
+        <v>15.294</v>
+      </c>
+      <c r="I598" t="n">
+        <v>16.588</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I598"/>
+  <dimension ref="A1:I599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17799,6 +17799,35 @@
         <v>16.588</v>
       </c>
     </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B599" t="n">
+        <v>8.201000000000001</v>
+      </c>
+      <c r="C599" t="n">
+        <v>9.164</v>
+      </c>
+      <c r="D599" t="n">
+        <v>10.017</v>
+      </c>
+      <c r="E599" t="n">
+        <v>14.283</v>
+      </c>
+      <c r="F599" t="n">
+        <v>15.616</v>
+      </c>
+      <c r="G599" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="H599" t="n">
+        <v>15.294</v>
+      </c>
+      <c r="I599" t="n">
+        <v>17.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I599"/>
+  <dimension ref="A1:I600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17828,6 +17828,35 @@
         <v>17.24</v>
       </c>
     </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B600" t="n">
+        <v>8.202</v>
+      </c>
+      <c r="C600" t="n">
+        <v>9.164999999999999</v>
+      </c>
+      <c r="D600" t="n">
+        <v>10.019</v>
+      </c>
+      <c r="E600" t="n">
+        <v>14.283</v>
+      </c>
+      <c r="F600" t="n">
+        <v>15.616</v>
+      </c>
+      <c r="G600" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="H600" t="n">
+        <v>15.294</v>
+      </c>
+      <c r="I600" t="n">
+        <v>17.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I600"/>
+  <dimension ref="A1:I601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17857,6 +17857,35 @@
         <v>17.24</v>
       </c>
     </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B601" t="n">
+        <v>8.202999999999999</v>
+      </c>
+      <c r="C601" t="n">
+        <v>8.747999999999999</v>
+      </c>
+      <c r="D601" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="E601" t="n">
+        <v>14.283</v>
+      </c>
+      <c r="F601" t="n">
+        <v>15.616</v>
+      </c>
+      <c r="G601" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="H601" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="I601" t="n">
+        <v>17.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I601"/>
+  <dimension ref="A1:I602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17886,6 +17886,35 @@
         <v>17.24</v>
       </c>
     </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B602" t="n">
+        <v>8.202</v>
+      </c>
+      <c r="C602" t="n">
+        <v>8.747999999999999</v>
+      </c>
+      <c r="D602" t="n">
+        <v>10.021</v>
+      </c>
+      <c r="E602" t="n">
+        <v>14.283</v>
+      </c>
+      <c r="F602" t="n">
+        <v>15.616</v>
+      </c>
+      <c r="G602" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="H602" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="I602" t="n">
+        <v>17.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I602"/>
+  <dimension ref="A1:I603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17915,6 +17915,35 @@
         <v>17.24</v>
       </c>
     </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B603" t="n">
+        <v>8.206</v>
+      </c>
+      <c r="C603" t="n">
+        <v>9.170999999999999</v>
+      </c>
+      <c r="D603" t="n">
+        <v>10.025</v>
+      </c>
+      <c r="E603" t="n">
+        <v>14.283</v>
+      </c>
+      <c r="F603" t="n">
+        <v>15.616</v>
+      </c>
+      <c r="G603" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="H603" t="n">
+        <v>15.294</v>
+      </c>
+      <c r="I603" t="n">
+        <v>17.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -17938,7 +17938,7 @@
         <v>16.15</v>
       </c>
       <c r="H603" t="n">
-        <v>15.294</v>
+        <v>16.7</v>
       </c>
       <c r="I603" t="n">
         <v>17.24</v>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I603"/>
+  <dimension ref="A1:I604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17944,6 +17944,35 @@
         <v>17.24</v>
       </c>
     </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B604" t="n">
+        <v>8.208</v>
+      </c>
+      <c r="C604" t="n">
+        <v>9.173</v>
+      </c>
+      <c r="D604" t="n">
+        <v>10.026</v>
+      </c>
+      <c r="E604" t="n">
+        <v>14.283</v>
+      </c>
+      <c r="F604" t="n">
+        <v>15.616</v>
+      </c>
+      <c r="G604" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="H604" t="n">
+        <v>15.294</v>
+      </c>
+      <c r="I604" t="n">
+        <v>17.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I604"/>
+  <dimension ref="A1:I605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17973,6 +17973,35 @@
         <v>17.24</v>
       </c>
     </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B605" t="n">
+        <v>8.207000000000001</v>
+      </c>
+      <c r="C605" t="n">
+        <v>9.173999999999999</v>
+      </c>
+      <c r="D605" t="n">
+        <v>10.028</v>
+      </c>
+      <c r="E605" t="n">
+        <v>13.171</v>
+      </c>
+      <c r="F605" t="n">
+        <v>15.401</v>
+      </c>
+      <c r="G605" t="n">
+        <v>15.611</v>
+      </c>
+      <c r="H605" t="n">
+        <v>16.159</v>
+      </c>
+      <c r="I605" t="n">
+        <v>16.698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I605"/>
+  <dimension ref="A1:I606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18002,6 +18002,35 @@
         <v>16.698</v>
       </c>
     </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B606" t="n">
+        <v>8.208</v>
+      </c>
+      <c r="C606" t="n">
+        <v>9.173999999999999</v>
+      </c>
+      <c r="D606" t="n">
+        <v>10.029</v>
+      </c>
+      <c r="E606" t="n">
+        <v>13.171</v>
+      </c>
+      <c r="F606" t="n">
+        <v>15.401</v>
+      </c>
+      <c r="G606" t="n">
+        <v>15.611</v>
+      </c>
+      <c r="H606" t="n">
+        <v>15.295</v>
+      </c>
+      <c r="I606" t="n">
+        <v>16.698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I606"/>
+  <dimension ref="A1:I607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18031,6 +18031,35 @@
         <v>16.698</v>
       </c>
     </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B607" t="n">
+        <v>8.199</v>
+      </c>
+      <c r="C607" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="D607" t="n">
+        <v>10.012</v>
+      </c>
+      <c r="E607" t="n">
+        <v>13.171</v>
+      </c>
+      <c r="F607" t="n">
+        <v>15.401</v>
+      </c>
+      <c r="G607" t="n">
+        <v>15.611</v>
+      </c>
+      <c r="H607" t="n">
+        <v>15.295</v>
+      </c>
+      <c r="I607" t="n">
+        <v>16.698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I607"/>
+  <dimension ref="A1:I608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18060,6 +18060,35 @@
         <v>16.698</v>
       </c>
     </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B608" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C608" t="n">
+        <v>9.164</v>
+      </c>
+      <c r="D608" t="n">
+        <v>10.017</v>
+      </c>
+      <c r="E608" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F608" t="n">
+        <v>15.078</v>
+      </c>
+      <c r="G608" t="n">
+        <v>15.395</v>
+      </c>
+      <c r="H608" t="n">
+        <v>16.159</v>
+      </c>
+      <c r="I608" t="n">
+        <v>16.698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I608"/>
+  <dimension ref="A1:I609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18089,6 +18089,35 @@
         <v>16.698</v>
       </c>
     </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B609" t="n">
+        <v>8.201000000000001</v>
+      </c>
+      <c r="C609" t="n">
+        <v>9.164</v>
+      </c>
+      <c r="D609" t="n">
+        <v>10.017</v>
+      </c>
+      <c r="E609" t="n">
+        <v>12.667</v>
+      </c>
+      <c r="F609" t="n">
+        <v>13.682</v>
+      </c>
+      <c r="G609" t="n">
+        <v>15.072</v>
+      </c>
+      <c r="H609" t="n">
+        <v>15.997</v>
+      </c>
+      <c r="I609" t="n">
+        <v>16.698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I609"/>
+  <dimension ref="A1:I611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18118,6 +18118,64 @@
         <v>16.698</v>
       </c>
     </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B610" t="n">
+        <v>8.202</v>
+      </c>
+      <c r="C610" t="n">
+        <v>9.164999999999999</v>
+      </c>
+      <c r="D610" t="n">
+        <v>10.019</v>
+      </c>
+      <c r="E610" t="n">
+        <v>12.667</v>
+      </c>
+      <c r="F610" t="n">
+        <v>15.075</v>
+      </c>
+      <c r="G610" t="n">
+        <v>15.072</v>
+      </c>
+      <c r="H610" t="n">
+        <v>15.997</v>
+      </c>
+      <c r="I610" t="n">
+        <v>16.698</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B611" t="n">
+        <v>8.202999999999999</v>
+      </c>
+      <c r="C611" t="n">
+        <v>9.167</v>
+      </c>
+      <c r="D611" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="E611" t="n">
+        <v>12.667</v>
+      </c>
+      <c r="F611" t="n">
+        <v>13.679</v>
+      </c>
+      <c r="G611" t="n">
+        <v>15.073</v>
+      </c>
+      <c r="H611" t="n">
+        <v>15.295</v>
+      </c>
+      <c r="I611" t="n">
+        <v>16.698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I611"/>
+  <dimension ref="A1:I612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18176,6 +18176,35 @@
         <v>16.698</v>
       </c>
     </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B612" t="n">
+        <v>8.202</v>
+      </c>
+      <c r="C612" t="n">
+        <v>9.167999999999999</v>
+      </c>
+      <c r="D612" t="n">
+        <v>10.021</v>
+      </c>
+      <c r="E612" t="n">
+        <v>12.667</v>
+      </c>
+      <c r="F612" t="n">
+        <v>15.075</v>
+      </c>
+      <c r="G612" t="n">
+        <v>15.073</v>
+      </c>
+      <c r="H612" t="n">
+        <v>15.295</v>
+      </c>
+      <c r="I612" t="n">
+        <v>16.698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I612"/>
+  <dimension ref="A1:I613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18205,6 +18205,35 @@
         <v>16.698</v>
       </c>
     </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B613" t="n">
+        <v>8.206</v>
+      </c>
+      <c r="C613" t="n">
+        <v>9.170999999999999</v>
+      </c>
+      <c r="D613" t="n">
+        <v>10.025</v>
+      </c>
+      <c r="E613" t="n">
+        <v>12.667</v>
+      </c>
+      <c r="F613" t="n">
+        <v>15.075</v>
+      </c>
+      <c r="G613" t="n">
+        <v>15.073</v>
+      </c>
+      <c r="H613" t="n">
+        <v>15.997</v>
+      </c>
+      <c r="I613" t="n">
+        <v>16.698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I613"/>
+  <dimension ref="A1:I614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18234,6 +18234,35 @@
         <v>16.698</v>
       </c>
     </row>
+    <row r="614">
+      <c r="A614" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B614" t="n">
+        <v>8.208</v>
+      </c>
+      <c r="C614" t="n">
+        <v>9.173</v>
+      </c>
+      <c r="D614" t="n">
+        <v>10.026</v>
+      </c>
+      <c r="E614" t="n">
+        <v>12.667</v>
+      </c>
+      <c r="F614" t="n">
+        <v>13.681</v>
+      </c>
+      <c r="G614" t="n">
+        <v>15.073</v>
+      </c>
+      <c r="H614" t="n">
+        <v>15.295</v>
+      </c>
+      <c r="I614" t="n">
+        <v>16.698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I614"/>
+  <dimension ref="A1:I615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18263,6 +18263,35 @@
         <v>16.698</v>
       </c>
     </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>44768</v>
+      </c>
+      <c r="B615" t="n">
+        <v>8.207000000000001</v>
+      </c>
+      <c r="C615" t="n">
+        <v>9.173999999999999</v>
+      </c>
+      <c r="D615" t="n">
+        <v>10.028</v>
+      </c>
+      <c r="E615" t="n">
+        <v>12.667</v>
+      </c>
+      <c r="F615" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="G615" t="n">
+        <v>15.073</v>
+      </c>
+      <c r="H615" t="n">
+        <v>15.997</v>
+      </c>
+      <c r="I615" t="n">
+        <v>16.698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I615"/>
+  <dimension ref="A1:I616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18292,6 +18292,35 @@
         <v>16.698</v>
       </c>
     </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B616" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C616" t="n">
+        <v>9.164</v>
+      </c>
+      <c r="D616" t="n">
+        <v>10.017</v>
+      </c>
+      <c r="E616" t="n">
+        <v>12.668</v>
+      </c>
+      <c r="F616" t="n">
+        <v>15.076</v>
+      </c>
+      <c r="G616" t="n">
+        <v>15.288</v>
+      </c>
+      <c r="H616" t="n">
+        <v>16.159</v>
+      </c>
+      <c r="I616" t="n">
+        <v>16.698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I616"/>
+  <dimension ref="A1:I617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18321,6 +18321,35 @@
         <v>16.698</v>
       </c>
     </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B617" t="n">
+        <v>8.542</v>
+      </c>
+      <c r="C617" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="D617" t="n">
+        <v>11.321</v>
+      </c>
+      <c r="E617" t="n">
+        <v>13.171</v>
+      </c>
+      <c r="F617" t="n">
+        <v>15.345</v>
+      </c>
+      <c r="G617" t="n">
+        <v>15.828</v>
+      </c>
+      <c r="H617" t="n">
+        <v>15.295</v>
+      </c>
+      <c r="I617" t="n">
+        <v>16.698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I617"/>
+  <dimension ref="A1:I618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18350,6 +18350,35 @@
         <v>16.698</v>
       </c>
     </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B618" t="n">
+        <v>8.202</v>
+      </c>
+      <c r="C618" t="n">
+        <v>8.747</v>
+      </c>
+      <c r="D618" t="n">
+        <v>10.019</v>
+      </c>
+      <c r="E618" t="n">
+        <v>13.172</v>
+      </c>
+      <c r="F618" t="n">
+        <v>15.345</v>
+      </c>
+      <c r="G618" t="n">
+        <v>15.828</v>
+      </c>
+      <c r="H618" t="n">
+        <v>16.159</v>
+      </c>
+      <c r="I618" t="n">
+        <v>16.698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I618"/>
+  <dimension ref="A1:I619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18379,6 +18379,35 @@
         <v>16.698</v>
       </c>
     </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B619" t="n">
+        <v>8.202999999999999</v>
+      </c>
+      <c r="C619" t="n">
+        <v>9.167</v>
+      </c>
+      <c r="D619" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="E619" t="n">
+        <v>13.172</v>
+      </c>
+      <c r="F619" t="n">
+        <v>15.345</v>
+      </c>
+      <c r="G619" t="n">
+        <v>15.828</v>
+      </c>
+      <c r="H619" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="I619" t="n">
+        <v>16.698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I619"/>
+  <dimension ref="A1:I620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18408,6 +18408,35 @@
         <v>16.698</v>
       </c>
     </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>44777</v>
+      </c>
+      <c r="B620" t="n">
+        <v>8.202</v>
+      </c>
+      <c r="C620" t="n">
+        <v>9.167999999999999</v>
+      </c>
+      <c r="D620" t="n">
+        <v>10.021</v>
+      </c>
+      <c r="E620" t="n">
+        <v>13.172</v>
+      </c>
+      <c r="F620" t="n">
+        <v>13.681</v>
+      </c>
+      <c r="G620" t="n">
+        <v>15.828</v>
+      </c>
+      <c r="H620" t="n">
+        <v>15.295</v>
+      </c>
+      <c r="I620" t="n">
+        <v>16.698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I620"/>
+  <dimension ref="A1:I621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18437,6 +18437,35 @@
         <v>16.698</v>
       </c>
     </row>
+    <row r="621">
+      <c r="A621" s="2" t="n">
+        <v>44778</v>
+      </c>
+      <c r="B621" t="n">
+        <v>8.206</v>
+      </c>
+      <c r="C621" t="n">
+        <v>9.170999999999999</v>
+      </c>
+      <c r="D621" t="n">
+        <v>10.025</v>
+      </c>
+      <c r="E621" t="n">
+        <v>13.704</v>
+      </c>
+      <c r="F621" t="n">
+        <v>13.681</v>
+      </c>
+      <c r="G621" t="n">
+        <v>15.828</v>
+      </c>
+      <c r="H621" t="n">
+        <v>15.295</v>
+      </c>
+      <c r="I621" t="n">
+        <v>16.698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I621"/>
+  <dimension ref="A1:I623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18466,6 +18466,64 @@
         <v>16.698</v>
       </c>
     </row>
+    <row r="622">
+      <c r="A622" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="B622" t="n">
+        <v>8.208</v>
+      </c>
+      <c r="C622" t="n">
+        <v>9.173</v>
+      </c>
+      <c r="D622" t="n">
+        <v>10.026</v>
+      </c>
+      <c r="E622" t="n">
+        <v>13.997</v>
+      </c>
+      <c r="F622" t="n">
+        <v>15.345</v>
+      </c>
+      <c r="G622" t="n">
+        <v>15.882</v>
+      </c>
+      <c r="H622" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="I622" t="n">
+        <v>16.698</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="B623" t="n">
+        <v>8.207000000000001</v>
+      </c>
+      <c r="C623" t="n">
+        <v>9.173999999999999</v>
+      </c>
+      <c r="D623" t="n">
+        <v>10.028</v>
+      </c>
+      <c r="E623" t="n">
+        <v>13.997</v>
+      </c>
+      <c r="F623" t="n">
+        <v>15.346</v>
+      </c>
+      <c r="G623" t="n">
+        <v>15.882</v>
+      </c>
+      <c r="H623" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="I623" t="n">
+        <v>16.698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I623"/>
+  <dimension ref="A1:I624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18524,6 +18524,35 @@
         <v>16.698</v>
       </c>
     </row>
+    <row r="624">
+      <c r="A624" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="B624" t="n">
+        <v>8.201000000000001</v>
+      </c>
+      <c r="C624" t="n">
+        <v>9.164</v>
+      </c>
+      <c r="D624" t="n">
+        <v>10.017</v>
+      </c>
+      <c r="E624" t="n">
+        <v>13.997</v>
+      </c>
+      <c r="F624" t="n">
+        <v>13.682</v>
+      </c>
+      <c r="G624" t="n">
+        <v>15.882</v>
+      </c>
+      <c r="H624" t="n">
+        <v>15.295</v>
+      </c>
+      <c r="I624" t="n">
+        <v>16.699</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I624"/>
+  <dimension ref="A1:I625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18553,6 +18553,35 @@
         <v>16.699</v>
       </c>
     </row>
+    <row r="625">
+      <c r="A625" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B625" t="n">
+        <v>8.202</v>
+      </c>
+      <c r="C625" t="n">
+        <v>9.164999999999999</v>
+      </c>
+      <c r="D625" t="n">
+        <v>10.019</v>
+      </c>
+      <c r="E625" t="n">
+        <v>13.997</v>
+      </c>
+      <c r="F625" t="n">
+        <v>15.346</v>
+      </c>
+      <c r="G625" t="n">
+        <v>15.882</v>
+      </c>
+      <c r="H625" t="n">
+        <v>15.295</v>
+      </c>
+      <c r="I625" t="n">
+        <v>16.699</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I625"/>
+  <dimension ref="A1:I626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18582,6 +18582,35 @@
         <v>16.699</v>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="B626" t="n">
+        <v>8.202</v>
+      </c>
+      <c r="C626" t="n">
+        <v>9.167999999999999</v>
+      </c>
+      <c r="D626" t="n">
+        <v>10.021</v>
+      </c>
+      <c r="E626" t="n">
+        <v>13.997</v>
+      </c>
+      <c r="F626" t="n">
+        <v>15.347</v>
+      </c>
+      <c r="G626" t="n">
+        <v>15.936</v>
+      </c>
+      <c r="H626" t="n">
+        <v>15.295</v>
+      </c>
+      <c r="I626" t="n">
+        <v>16.97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I626"/>
+  <dimension ref="A1:I627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18611,6 +18611,35 @@
         <v>16.97</v>
       </c>
     </row>
+    <row r="627">
+      <c r="A627" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="B627" t="n">
+        <v>8.206</v>
+      </c>
+      <c r="C627" t="n">
+        <v>9.170999999999999</v>
+      </c>
+      <c r="D627" t="n">
+        <v>10.025</v>
+      </c>
+      <c r="E627" t="n">
+        <v>13.997</v>
+      </c>
+      <c r="F627" t="n">
+        <v>15.347</v>
+      </c>
+      <c r="G627" t="n">
+        <v>15.936</v>
+      </c>
+      <c r="H627" t="n">
+        <v>16.593</v>
+      </c>
+      <c r="I627" t="n">
+        <v>16.97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I627"/>
+  <dimension ref="A1:I628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18640,6 +18640,35 @@
         <v>16.97</v>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B628" t="n">
+        <v>8.208</v>
+      </c>
+      <c r="C628" t="n">
+        <v>9.173</v>
+      </c>
+      <c r="D628" t="n">
+        <v>10.026</v>
+      </c>
+      <c r="E628" t="n">
+        <v>13.997</v>
+      </c>
+      <c r="F628" t="n">
+        <v>15.347</v>
+      </c>
+      <c r="G628" t="n">
+        <v>15.936</v>
+      </c>
+      <c r="H628" t="n">
+        <v>16.593</v>
+      </c>
+      <c r="I628" t="n">
+        <v>16.97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I628"/>
+  <dimension ref="A1:I629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18669,6 +18669,35 @@
         <v>16.97</v>
       </c>
     </row>
+    <row r="629">
+      <c r="A629" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B629" t="n">
+        <v>8.207000000000001</v>
+      </c>
+      <c r="C629" t="n">
+        <v>9.173999999999999</v>
+      </c>
+      <c r="D629" t="n">
+        <v>10.028</v>
+      </c>
+      <c r="E629" t="n">
+        <v>13.997</v>
+      </c>
+      <c r="F629" t="n">
+        <v>15.509</v>
+      </c>
+      <c r="G629" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="H629" t="n">
+        <v>15.295</v>
+      </c>
+      <c r="I629" t="n">
+        <v>16.97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I629"/>
+  <dimension ref="A1:I630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18698,6 +18698,35 @@
         <v>16.97</v>
       </c>
     </row>
+    <row r="630">
+      <c r="A630" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B630" t="n">
+        <v>7.559</v>
+      </c>
+      <c r="C630" t="n">
+        <v>9.000999999999999</v>
+      </c>
+      <c r="D630" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="E630" t="n">
+        <v>13.997</v>
+      </c>
+      <c r="F630" t="n">
+        <v>15.509</v>
+      </c>
+      <c r="G630" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="H630" t="n">
+        <v>15.296</v>
+      </c>
+      <c r="I630" t="n">
+        <v>16.97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I630"/>
+  <dimension ref="A1:I631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18727,6 +18727,35 @@
         <v>16.97</v>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B631" t="n">
+        <v>8.199</v>
+      </c>
+      <c r="C631" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="D631" t="n">
+        <v>10.012</v>
+      </c>
+      <c r="E631" t="n">
+        <v>13.997</v>
+      </c>
+      <c r="F631" t="n">
+        <v>15.509</v>
+      </c>
+      <c r="G631" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="H631" t="n">
+        <v>15.296</v>
+      </c>
+      <c r="I631" t="n">
+        <v>16.971</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I631"/>
+  <dimension ref="A1:I632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18756,6 +18756,35 @@
         <v>16.971</v>
       </c>
     </row>
+    <row r="632">
+      <c r="A632" s="2" t="n">
+        <v>44799</v>
+      </c>
+      <c r="B632" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C632" t="n">
+        <v>9.164</v>
+      </c>
+      <c r="D632" t="n">
+        <v>10.017</v>
+      </c>
+      <c r="E632" t="n">
+        <v>13.997</v>
+      </c>
+      <c r="F632" t="n">
+        <v>15.509</v>
+      </c>
+      <c r="G632" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="H632" t="n">
+        <v>15.296</v>
+      </c>
+      <c r="I632" t="n">
+        <v>16.971</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I632"/>
+  <dimension ref="A1:I633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18785,6 +18785,35 @@
         <v>16.971</v>
       </c>
     </row>
+    <row r="633">
+      <c r="A633" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B633" t="n">
+        <v>8.202</v>
+      </c>
+      <c r="C633" t="n">
+        <v>9.164999999999999</v>
+      </c>
+      <c r="D633" t="n">
+        <v>10.019</v>
+      </c>
+      <c r="E633" t="n">
+        <v>14.035</v>
+      </c>
+      <c r="F633" t="n">
+        <v>15.509</v>
+      </c>
+      <c r="G633" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="H633" t="n">
+        <v>15.296</v>
+      </c>
+      <c r="I633" t="n">
+        <v>16.971</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I633"/>
+  <dimension ref="A1:I634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18814,6 +18814,35 @@
         <v>16.971</v>
       </c>
     </row>
+    <row r="634">
+      <c r="A634" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B634" t="n">
+        <v>8.202999999999999</v>
+      </c>
+      <c r="C634" t="n">
+        <v>8.747999999999999</v>
+      </c>
+      <c r="D634" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="E634" t="n">
+        <v>14.035</v>
+      </c>
+      <c r="F634" t="n">
+        <v>15.509</v>
+      </c>
+      <c r="G634" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="H634" t="n">
+        <v>15.296</v>
+      </c>
+      <c r="I634" t="n">
+        <v>16.971</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I634"/>
+  <dimension ref="A1:I635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18843,6 +18843,35 @@
         <v>16.971</v>
       </c>
     </row>
+    <row r="635">
+      <c r="A635" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B635" t="n">
+        <v>8.208</v>
+      </c>
+      <c r="C635" t="n">
+        <v>9.173</v>
+      </c>
+      <c r="D635" t="n">
+        <v>10.026</v>
+      </c>
+      <c r="E635" t="n">
+        <v>13.995</v>
+      </c>
+      <c r="F635" t="n">
+        <v>15.509</v>
+      </c>
+      <c r="G635" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="H635" t="n">
+        <v>15.295</v>
+      </c>
+      <c r="I635" t="n">
+        <v>16.971</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I635"/>
+  <dimension ref="A1:I636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18872,6 +18872,35 @@
         <v>16.971</v>
       </c>
     </row>
+    <row r="636">
+      <c r="A636" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B636" t="n">
+        <v>8.207000000000001</v>
+      </c>
+      <c r="C636" t="n">
+        <v>9.173999999999999</v>
+      </c>
+      <c r="D636" t="n">
+        <v>10.028</v>
+      </c>
+      <c r="E636" t="n">
+        <v>13.995</v>
+      </c>
+      <c r="F636" t="n">
+        <v>15.509</v>
+      </c>
+      <c r="G636" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="H636" t="n">
+        <v>16.591</v>
+      </c>
+      <c r="I636" t="n">
+        <v>16.971</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I636"/>
+  <dimension ref="A1:I637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18901,6 +18901,35 @@
         <v>16.971</v>
       </c>
     </row>
+    <row r="637">
+      <c r="A637" s="2" t="n">
+        <v>44811</v>
+      </c>
+      <c r="B637" t="n">
+        <v>8.198</v>
+      </c>
+      <c r="C637" t="n">
+        <v>9.157999999999999</v>
+      </c>
+      <c r="D637" t="n">
+        <v>10.011</v>
+      </c>
+      <c r="E637" t="n">
+        <v>13.995</v>
+      </c>
+      <c r="F637" t="n">
+        <v>15.509</v>
+      </c>
+      <c r="G637" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="H637" t="n">
+        <v>16.59</v>
+      </c>
+      <c r="I637" t="n">
+        <v>16.971</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I637"/>
+  <dimension ref="A1:I638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18930,6 +18930,35 @@
         <v>16.971</v>
       </c>
     </row>
+    <row r="638">
+      <c r="A638" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B638" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C638" t="n">
+        <v>9.164</v>
+      </c>
+      <c r="D638" t="n">
+        <v>10.017</v>
+      </c>
+      <c r="E638" t="n">
+        <v>13.995</v>
+      </c>
+      <c r="F638" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="G638" t="n">
+        <v>15.721</v>
+      </c>
+      <c r="H638" t="n">
+        <v>15.294</v>
+      </c>
+      <c r="I638" t="n">
+        <v>16.971</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -18953,7 +18953,7 @@
         <v>15.721</v>
       </c>
       <c r="H638" t="n">
-        <v>15.294</v>
+        <v>16.591</v>
       </c>
       <c r="I638" t="n">
         <v>16.971</v>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I638"/>
+  <dimension ref="A1:I640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18959,6 +18959,64 @@
         <v>16.971</v>
       </c>
     </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B639" t="n">
+        <v>7.563</v>
+      </c>
+      <c r="C639" t="n">
+        <v>9.007</v>
+      </c>
+      <c r="D639" t="n">
+        <v>9.414999999999999</v>
+      </c>
+      <c r="E639" t="n">
+        <v>13.995</v>
+      </c>
+      <c r="F639" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="G639" t="n">
+        <v>15.722</v>
+      </c>
+      <c r="H639" t="n">
+        <v>15.293</v>
+      </c>
+      <c r="I639" t="n">
+        <v>16.971</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B640" t="n">
+        <v>8.202</v>
+      </c>
+      <c r="C640" t="n">
+        <v>9.164999999999999</v>
+      </c>
+      <c r="D640" t="n">
+        <v>10.019</v>
+      </c>
+      <c r="E640" t="n">
+        <v>14.377</v>
+      </c>
+      <c r="F640" t="n">
+        <v>16.158</v>
+      </c>
+      <c r="G640" t="n">
+        <v>16.587</v>
+      </c>
+      <c r="H640" t="n">
+        <v>17.242</v>
+      </c>
+      <c r="I640" t="n">
+        <v>17.351</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Uganda.xlsx
+++ b/Bonds_Uganda.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I640"/>
+  <dimension ref="A1:I641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19017,6 +19017,35 @@
         <v>17.351</v>
       </c>
     </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B641" t="n">
+        <v>8.202999999999999</v>
+      </c>
+      <c r="C641" t="n">
+        <v>9.167</v>
+      </c>
+      <c r="D641" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="E641" t="n">
+        <v>14.377</v>
+      </c>
+      <c r="F641" t="n">
+        <v>16.159</v>
+      </c>
+      <c r="G641" t="n">
+        <v>16.587</v>
+      </c>
+      <c r="H641" t="n">
+        <v>17.242</v>
+      </c>
+      <c r="I641" t="n">
+        <v>17.351</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
